--- a/database/httpssecurityszurekpl.xlsx
+++ b/database/httpssecurityszurekpl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -697,6 +697,42 @@
         </is>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>https://security.szurek.pl/ghost-zdalne-wykonanie-kodu/</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Jak połączyć wiele małych błędów – w jeden poważny? Dlaczego warto usuwać stare funkcjonalności z aplikacji? Co to atak zip slip? Czy pliki package.json są niebezpieczne?</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>https://security.szurek.pl/xsleaks-cross-site-leaks/</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Błędy tego rodzaju w specyficznych okolicznościach pozwalają na odpowiedź tak/nie na zadane wcześniej pytanie. Na pozór wydaje się zatem, że to nic nie znacząca klasa podatności. Ale czy aby na pewno?</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>https://security.szurek.pl/jak-zostac-pentesterem/</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Jak zostać pentesterem/specjalistą bezpieczeństwa? Od czego zacząć naukę? Gdzie szukać materiałów edukacyjnych? Jakie ścieżki kariery istnieją? Czy znajomość programowania jest potrzebna? Czy kursy coś dają?</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/database/httpssecurityszurekpl.xlsx
+++ b/database/httpssecurityszurekpl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -733,6 +733,258 @@
         </is>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>https://security.szurek.pl/href="/"</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>© 2022 Kacper Szurek</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>https://security.szurek.pl/href="/bezpieczenstwo-serwerow-kontroli-wersji/"</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Opis błędów bezpieczeństwa odnalezionych w serwerach kontroli wersji. Różnica pomiędzy escapeshellarg i escapeshellcmd, przykład race condition, omijanie logowania.</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>https://security.szurek.pl/href="/czego-nie-wiesz-o-zlosliwym-oprogramowaniu/"</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Twórcy złośliwego oprogramowania używają wielu ciekawych technik aby przechytrzyć użytkownika i zarazić jego komputer. Podczas tej prezentacji poznasz mniej znane sposoby używane przez przestępców i sprawdzisz, czy dałbyś się na nie nabrać.</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>https://security.szurek.pl/href="/en/"</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>https://security.szurek.pl/href="/jak-dziala-dnssec/"</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Na świecie istnieje kilkanaście osób, które posiadają klucz do Internetu. I nie chodzi tu o żadne fizyczne klucze, a o dostęp do klucza prywatnego używanego w DNSSEC.</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>https://security.szurek.pl/href="/jak-prezydenci-zabezpieczaja-tajne-rozmowy/"</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Dziś każdy z nas może prowadzić tajne rozmowy telefoniczne przy pomocy smartfona i specjalnej aplikacji. Ale jeszcze kilkadziesiąt lat temu nie było to takie proste.</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>https://security.szurek.pl/href="/live/"</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Webinary</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>https://security.szurek.pl/href="/newsletter"</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Newsletter</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>https://security.szurek.pl/href="/newsletter/"</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Newsletter</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>https://security.szurek.pl/href="/omnie"</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>O mnie</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>https://security.szurek.pl/href="/osint/"</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Uwaga: wszystkie linki podane w tym artykule możesz ściągnąć w formie wygodnego pliku PDF tutaj. Cel materiału Zastanawiałeś się jak wiele informacji o sobie można znaleźć w Internecie? Jeżeli nie wiesz gdzie ich szukać - to też nie wiesz, że czasami można je usunąć. Materiał jest podzielony na kilka części: Adres zamieszkania Dane finansowe Informacje […]</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>https://security.szurek.pl/href="/polityka-prywatnosci"</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>polityką prywatności</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>https://security.szurek.pl/href="/polityka-prywatnosci/"</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Polityka prywatności</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>https://security.szurek.pl/href="/problem-milionerow/"</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Masz kolegę. Obaj pracujecie w tej samej firmie. Macie takie same stanowiska. Jak sprawdzić czy zarabiacie tyle samo?</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>https://security.szurek.pl/href="/pytania-rekrutacyjne-na-juniora/"</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Rozpoczynasz swoją przygodę z bezpieczeństwem? Przeczytałeś kilka książek i wziąłeś udział w kilku kursach. Co powinieneś wiedzieć? Spróbujmy razem odpowiedzieć na pytania, które możesz usłyszeć podczas rozmowy kwalifikacyjnej.</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>https://security.szurek.pl/href="/tag/"</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Tagi</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>https://security.szurek.pl/href="/techniki-szpiegowskie-mikrofil-domowej-roboty/"</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Chcesz poczuć się jak prawdziwy szpieg obcego wywiadu nie wychodząc z domu? Spróbuj wykonać mikrokropkę – malutką fotografię wielkości ziarnka grochu, która może przechowywać treść całej kartki A4. Co to jest mikrofilm? Do czego służył i jak był wykorzystywany?</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>https://security.szurek.pl/href="/wojciech-dworakowski/"</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Wojciech Dworakowski - prezes firmy Securing. Na co zwrócić uwagę podczas zawierania kontraktu z firmą oferującą testy penetracyjne? Co to jest OWASP? Jak często zdarza się nie znajdować błędów?</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>https://security.szurek.pl/href="https://facebook.com/groups/od0dopentestera/"</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>https://security.szurek.pl/href="https://twitter.com/KacperSzurek"</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Twitter</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>https://security.szurek.pl/href="https://www.youtube.com/c/KacperSzurek"</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>YouTube</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/database/httpssecurityszurekpl.xlsx
+++ b/database/httpssecurityszurekpl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -985,6 +985,18 @@
         </is>
       </c>
     </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>https://security.szurek.pl/href="/badwpad/"</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Atak BadWPAD, dzięki któremu można podsłuchiwać i modyfikować niezaszyfrowany ruch internetowy na twoim komputerze.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/database/httpssecurityszurekpl.xlsx
+++ b/database/httpssecurityszurekpl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -997,6 +997,30 @@
         </is>
       </c>
     </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>https://security.szurek.pl/hakerskie-gadzety-narzedzia-uzywane-podczas-red-teamingu/</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Wi-Fi Pineapple - jak atakuje się sieci Wi-Fi, USB Rubber Ducky - dlaczego powinieneś się wylogować gdy odchodzisz od komputera, USB Killer - niszczenie portów USB</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>https://security.szurek.pl/yubikey/</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Po co mi YubiKey? Jak się tego używa Jaki klucz wybrać? Ile kluczy muszę kupić? Gdzie on działa i czym różni się od menadżera haseł?</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
